--- a/HW1.xlsx
+++ b/HW1.xlsx
@@ -460,16 +460,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C2" t="n">
         <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>126.8</v>
+        <v>126.27</v>
       </c>
       <c r="E2" t="n">
-        <v>42.04</v>
+        <v>42.23</v>
       </c>
     </row>
     <row r="3">
@@ -477,16 +477,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="C3" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D3" t="n">
-        <v>127.01</v>
+        <v>127.94</v>
       </c>
       <c r="E3" t="n">
-        <v>42.22</v>
+        <v>42.82</v>
       </c>
     </row>
     <row r="4">
@@ -497,13 +497,13 @@
         <v>247</v>
       </c>
       <c r="C4" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="n">
-        <v>127.6</v>
+        <v>126.36</v>
       </c>
       <c r="E4" t="n">
-        <v>43.11</v>
+        <v>42.52</v>
       </c>
     </row>
     <row r="5">
@@ -511,16 +511,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C5" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
-        <v>126.34</v>
+        <v>128.41</v>
       </c>
       <c r="E5" t="n">
-        <v>42.71</v>
+        <v>42.82</v>
       </c>
     </row>
     <row r="6">
@@ -528,16 +528,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>240</v>
+        <v>253</v>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>126.77</v>
+        <v>126.69</v>
       </c>
       <c r="E6" t="n">
-        <v>42.52</v>
+        <v>41.91</v>
       </c>
     </row>
     <row r="7">
@@ -545,16 +545,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="C7" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D7" t="n">
-        <v>128.09</v>
+        <v>126</v>
       </c>
       <c r="E7" t="n">
-        <v>42.87</v>
+        <v>42.46</v>
       </c>
     </row>
     <row r="8">
@@ -562,16 +562,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="C8" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D8" t="n">
-        <v>127.58</v>
+        <v>127.71</v>
       </c>
       <c r="E8" t="n">
-        <v>42.52</v>
+        <v>42.47</v>
       </c>
     </row>
     <row r="9">
@@ -579,16 +579,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C9" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D9" t="n">
-        <v>126.75</v>
+        <v>128.29</v>
       </c>
       <c r="E9" t="n">
-        <v>42.52</v>
+        <v>42.74</v>
       </c>
     </row>
     <row r="10">
@@ -596,16 +596,16 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C10" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D10" t="n">
-        <v>126.99</v>
+        <v>127.68</v>
       </c>
       <c r="E10" t="n">
-        <v>41.93</v>
+        <v>42.69</v>
       </c>
     </row>
     <row r="11">
@@ -613,16 +613,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C11" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D11" t="n">
-        <v>127.7</v>
+        <v>126.68</v>
       </c>
       <c r="E11" t="n">
-        <v>43</v>
+        <v>42.91</v>
       </c>
     </row>
   </sheetData>
